--- a/6/1/2/1/2/Suscripciones diarias por plazo original, bancos reciben tasa fija 2009 a 2021 - Trimestral.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original, bancos reciben tasa fija 2009 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Serie</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2189,6 +2192,38 @@
         <v>1109</v>
       </c>
     </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>20202</v>
+      </c>
+      <c r="C52">
+        <v>3377</v>
+      </c>
+      <c r="D52">
+        <v>2559</v>
+      </c>
+      <c r="E52">
+        <v>2158</v>
+      </c>
+      <c r="F52">
+        <v>3198</v>
+      </c>
+      <c r="G52">
+        <v>1501</v>
+      </c>
+      <c r="H52">
+        <v>3839</v>
+      </c>
+      <c r="I52">
+        <v>1928</v>
+      </c>
+      <c r="J52">
+        <v>1642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
